--- a/medicine/Œil et vue/Point_aveugle/Point_aveugle.xlsx
+++ b/medicine/Œil et vue/Point_aveugle/Point_aveugle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le point aveugle ou tache aveugle ou tache de Mariotte ou  papille optique ou disque optique correspond à la partie de la rétine où s'insère le nerf optique qui relaye les influx nerveux de la couche plexiforme interne jusqu'au cortex cérébral, ainsi que les vaisseaux sanguins arrivant à l'œil et quittant l'œil. Dans la pratique, il s'agit donc d'une petite portion de la rétine qui est dépourvue de photorécepteurs et qui est ainsi complètement aveugle.
 Tous les yeux des vertébrés ont une tache aveugle, mais les yeux des céphalopodes, qui leur ressemblent beaucoup, n'en ont pas. En effet, chez les céphalopodes, le nerf optique est relié à la partie arrière des récepteurs visuels, et il ne traverse donc pas la rétine.
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Papille de Bergmeister</t>
         </is>
